--- a/biology/Médecine/Loup_(remède)/Loup_(remède).xlsx
+++ b/biology/Médecine/Loup_(remède)/Loup_(remède).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loup_(rem%C3%A8de)</t>
+          <t>Loup_(remède)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le loup et notamment le loup gris commun a été longtemps utilisé dans la pharmacopée comme en témoignent ces quelques extraits :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loup_(rem%C3%A8de)</t>
+          <t>Loup_(remède)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le loup comme médicament</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Les bêtes ont été créées pour servir à l’homme, non seulement en matière de nourriture, mais aussi pour lui servir de médicament, comme l’ont dit Aristote et Jean Damascène. (…) En effet, dans le corps de la bête, il n’est rien qui, de manière évidente ou cachée, ne renferme quelque médicament. Car le cuir et le poil, les cornes et les ongles, la chair et le sang, et même le fumier des bêtes, possèdent en eux de grandes vertus médicinales. »
 Barthélemy l’Anglais : Livre des propriétés des choses, vers 1240. (Traduit du latin par Jean Corbechon, 1372)
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loup_(rem%C3%A8de)</t>
+          <t>Loup_(remède)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Croyances populaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Nuisible de son vivant, inutile après sa mort… » : cette condamnation absolue du loup par le célèbre naturaliste Buffon (1707-1788) ignore ou méprise les multiples pouvoirs prêtés à l’animal et à chacun de ses organes ou morceaux. Vers la même époque, on lit dans l’Encyclopédie dite de Diderot : « Les paysans et les chasseurs qui prennent des loups ne manquent point d’en conserver le foie qu’ils font sécher au four, ou de le vendre à quelque apothicaire. C’est une drogue qui se trouve communément dans les boutiques; elle est vantée contre les hydropisies qui dépendent d’un vice de ce viscère. On la donne en poudre ; à la dose d’un gros. (= 3 à 4 grammes) C’est un remède peu éprouvé. »
 Depuis pour le moins l’Antiquité jusqu’au début du vingtième siècle, oralement ou par écrit, se transmettront maintes recettes créditant le loup de merveilleuses vertus médicamenteuses. Mêlant empirisme et magie, ces remèdes populaires présentent l’intérêt de refléter les mentalités pré-scientifiques. Aux yeux de ceux qui le subirent, le loup n’est pas un simple mammifère carnassier ordinaire, mais une créature dont la mystification se poursuit après sa mort.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Loup_(rem%C3%A8de)</t>
+          <t>Loup_(remède)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Éléments de la légende</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Portée en collier, la dent du loup passe pour détenir et transmettre les vertus offensives et défensives de l’animal auquel elle appartint. Par magie contagieuse, elle favorise également la poussée des dents et calme les convulsions ainsi que les peurs nocturnes des enfants. Suspendue au cou d’un cheval, elle combat la fatigue de celui-ci.
 Une jarretière taillée dans le cuir de l’animal rend son porteur invincible à la course.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Loup_(rem%C3%A8de)</t>
+          <t>Loup_(remède)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,8 +639,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pline l’Ancien
-(23-79)
+          <t>Pline l’Ancien</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(23-79)
 « On dit qu'un mufle de loup séché protège contre les maléfices; et pour cette raison on en attache à la porte des maisons de la campagne. La peau du cou tout entier passe pour avoir la même vertu; car l'influence de l'animal est si puissante, que, sans compter ce que nous en avons dit (VIII, 34), il suffit que les chevaux mettent le pied sur ses traces, pour être frappés de torpeur (XXVIII, 81). »
 « Il est avantageux dans la cataracte de faire des frictions avec les excréments du loup. La cendre de ces mêmes excréments avec du miel attique est bonne en onctions pour la vue trouble. »
 « La cendre de la tête du loup est un grand remède; et il est certain qu'il se trouve presque toujours dans ses excréments des os qui en amulette ont la même efficacité. »
@@ -635,52 +658,159 @@
 « La graisse de loup en topique amollit la matrice; le foie en calme les douleurs. Il est avantageux aux femmes qui vont accoucher de manger de la chair de loup, ou, si elles sont en travail, d'avoir auprès d'elles une personne qui en ait mangé, tant cet animal a de vertu contre les maléfices; mais quand cette personne vient de dehors elle gâte tout. »
 « Une dent de loup en amulette empêche les enfants d'avoir peur, et les préserve des maladies de la denture ; la peau de loup produit le même effet. Les plus grosses dents d'un loup attachées au cou des chevaux les rendent, dit-on, infatigables à la course. »
 Recettes glanées dans “ Histoire Naturelle ”, livre 28.
-Hildegarde de Bingen, dite Sainte Hildegarde
-(Douzième siècle)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Loup_(remède)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loup_(rem%C3%A8de)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hildegarde de Bingen, dite Sainte Hildegarde</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Douzième siècle)
 Ch. XIX : LE LOUP (De lupo)
 « (…) Si on souffre de la goutte, on prendra, en poids égaux, des feuilles de cassis de consoude ; on les pilera dans un mortier et on leur ajoutera de la graisse de loup, en quantité légèrement supérieure ; on en fera un onguent dont on se frictionnera les points douloureux ; puis, le deuxième ou le troisième jour, on se mettra dans un bain chaud et on évacuera la goutte par transpiration... »
 « Et si quelqu'un, à cause de maladies qui s 'en prennent à sa tête, entre en fureur et devient frénétique, il faut lui raser le crâne, puis faire cuire un loup dans de l'eau, après avoir enlevé la peau et les viscères ; laver alors la tête du furieux à l'eau de cuisson, en obstruant les yeux, les oreilles et la bouche avec des linges, pour que l'eau n'y entre pas : car si ce liquide entre dans son corps, sa folie augmente comme si c'était du poison ; répéter cela pendant trois jours et même si la folie est forte il retrouvera ses esprits. »
 « Si dans une maison, se trouvent une peau, des poils ou des os de loup, les hommes s'y battent facilement et les esprits aériens s'y promènent volontiers à cause de sa nature mauvaise... »
 Le livre des subtilités des créatures divines.
-Secrets merveilleux du Petit Albert
-De la fiente de Loup
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Loup_(remède)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loup_(rem%C3%A8de)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Secrets merveilleux du Petit Albert</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la fiente de Loup
 « Il n'y a personne qui ne sache que le loup est un animal cruel, qui dévore souvent la chair avec les os ; si l’on prend les os que l’on trouvera parmi cette fiente, et qu'on les pile bien menus, ensuite qu'on les boive avec un peu de vin : ce breuvage a une vertu particulière et admirable pour guérir sur-le-champ de la colique, de quelque manière qu'elle soit venue. »
 Pour nouer l'Aiguillette.
 « Ayez la verge d'un loup nouvellement tué et, étant proche de la porte de celui que vous voudrez lier, vous l‘appellerez par son propre nom, et, aussitôt qu'il aura répondu, vous lierez ladite verge de loup avec un lacet de fil blanc et il sera rendu si impuissant à l'acte de Vénus, qu'il ne le serait pas davantage s'il était châtré. De bonnes expériences ont fait connaître que pour remédier, et, même, pour empêcher cette espèce d'enchantement il n'y a qu'à porter un anneau dans lequel soit enchâssé l'œil droit d'une belette. »
 Pour se garantir du cocuage.
 « Prenez le bout du membre génital d'un loup, le poil de ses yeux et celui qui est à sa gueule en forme de barbe ; réduisez cela en poudre par calcination et faites-le avaler à la femme sans qu'elle le sache et l'on pourra être assuré de sa fidélité. La moelle de l'épine du dos eu loup a le même effet. »
-Dom Nicolas Alexandre
-« LOUP (Lupus) est un animal hardi, carnassier vivant de rapine, &amp; si semblable au Chien que quelques Chasseurs l'appellent Chien sauvage. La dent du Loup est employée pour aider à faire sortir les premières dents des enfans ; on l'enchâsse dans un hochet d'argent, &amp; on la leur fait mâcher, afin que les gencives s'ouvrant par ce frottement les dents sortent. Le cœur torréfié &amp; brûlé pris en poudre depuis demi scrupule jusqu'à deux est propre pour l'épilepsie. Le foye séché &amp; pulvérisé, donné depuis un scrupule jusqu'à une dragme dans une eau appropriée est bon aux schirres de la rate, à l’hydropisie, à la pthysie &amp; à la toux. Les intestins &amp; la fiente du Loup desséchés donnés en poudre jusqu'à une dragme sont recommandés universellement par tous les Auteurs pour la colique ; &amp; Panarole assure qu'il a guéri des coliques désespérées avec de la fiente de Loup ; les os qui se trouvent dans la fiente sans avoir été digérés, sont meilleurs en poudre que la fiente même. On fait aussi des ceintures avec les intestins ou avec la peau qu'on applique sur la chair nue du côté du poil avec beaucoup de succès dans la colique. La chair du Loup mangée est bonne aux épileptiques ; &amp; les Espagnols selon Schroder, en font porter de salées aux mêmes malades. La graisse de Loup n'est pas moins estimée que celle de Chien ; elle est chaude, digestive, nervale, propre aux maladies des articles &amp; à la chassîe des yeux étant enduite. Les os du Loup pulvérisés donnés jusqu'à une dragme sont propres pour la pleurésie, pour la sciatique, pour les douleurs de côté. L'Huile qui se fait par la coction d'un Loup dans icelle convient à la goutte. Meyssonnier dit qu'il a vu un homme délivré d'une fâcheuse douleur &amp; faiblesse d'estomac portant contre le sein une portion de la peau qui couvroit la poitrine d'un petit Loup. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Loup_(remède)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loup_(rem%C3%A8de)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dom Nicolas Alexandre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« LOUP (Lupus) est un animal hardi, carnassier vivant de rapine, &amp; si semblable au Chien que quelques Chasseurs l'appellent Chien sauvage. La dent du Loup est employée pour aider à faire sortir les premières dents des enfans ; on l'enchâsse dans un hochet d'argent, &amp; on la leur fait mâcher, afin que les gencives s'ouvrant par ce frottement les dents sortent. Le cœur torréfié &amp; brûlé pris en poudre depuis demi scrupule jusqu'à deux est propre pour l'épilepsie. Le foye séché &amp; pulvérisé, donné depuis un scrupule jusqu'à une dragme dans une eau appropriée est bon aux schirres de la rate, à l’hydropisie, à la pthysie &amp; à la toux. Les intestins &amp; la fiente du Loup desséchés donnés en poudre jusqu'à une dragme sont recommandés universellement par tous les Auteurs pour la colique ; &amp; Panarole assure qu'il a guéri des coliques désespérées avec de la fiente de Loup ; les os qui se trouvent dans la fiente sans avoir été digérés, sont meilleurs en poudre que la fiente même. On fait aussi des ceintures avec les intestins ou avec la peau qu'on applique sur la chair nue du côté du poil avec beaucoup de succès dans la colique. La chair du Loup mangée est bonne aux épileptiques ; &amp; les Espagnols selon Schroder, en font porter de salées aux mêmes malades. La graisse de Loup n'est pas moins estimée que celle de Chien ; elle est chaude, digestive, nervale, propre aux maladies des articles &amp; à la chassîe des yeux étant enduite. Les os du Loup pulvérisés donnés jusqu'à une dragme sont propres pour la pleurésie, pour la sciatique, pour les douleurs de côté. L'Huile qui se fait par la coction d'un Loup dans icelle convient à la goutte. Meyssonnier dit qu'il a vu un homme délivré d'une fâcheuse douleur &amp; faiblesse d'estomac portant contre le sein une portion de la peau qui couvroit la poitrine d'un petit Loup. »
 Dictionnaire botanique et pharmaceutique…, 1716
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Loup_(rem%C3%A8de)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Loup_(remède)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Loup_(rem%C3%A8de)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources principales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pline l’Ancien (Premier siècle après J.C.) : Histoire naturelle
 Hildegarde de Bingen (dite Sainte Hildegarde, 1098-1136) : Le livre des subtilités des créatures divines, réédition Jérôme Million, 1994.
